--- a/AAII_Financials/Yearly/JEXYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JEXYY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1884300</v>
+        <v>1826400</v>
       </c>
       <c r="E8" s="3">
-        <v>2027100</v>
+        <v>1964800</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1256800</v>
+        <v>1218200</v>
       </c>
       <c r="E9" s="3">
-        <v>1279900</v>
+        <v>1240600</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>627500</v>
+        <v>608200</v>
       </c>
       <c r="E10" s="3">
-        <v>747200</v>
+        <v>724200</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -860,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -887,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="E15" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1228100</v>
+        <v>1190300</v>
       </c>
       <c r="E17" s="3">
-        <v>1234500</v>
+        <v>1196500</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>656200</v>
+        <v>636000</v>
       </c>
       <c r="E18" s="3">
-        <v>792600</v>
+        <v>768300</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>651200</v>
+        <v>631200</v>
       </c>
       <c r="E21" s="3">
-        <v>791300</v>
+        <v>766900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>651200</v>
+        <v>631200</v>
       </c>
       <c r="E23" s="3">
-        <v>791300</v>
+        <v>766900</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118400</v>
+        <v>114800</v>
       </c>
       <c r="E24" s="3">
-        <v>183300</v>
+        <v>177700</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>532800</v>
+        <v>516400</v>
       </c>
       <c r="E26" s="3">
-        <v>607900</v>
+        <v>589200</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>529400</v>
+        <v>513100</v>
       </c>
       <c r="E27" s="3">
-        <v>608400</v>
+        <v>589700</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="E32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>529400</v>
+        <v>513100</v>
       </c>
       <c r="E33" s="3">
-        <v>608400</v>
+        <v>589700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>529400</v>
+        <v>513100</v>
       </c>
       <c r="E35" s="3">
-        <v>608400</v>
+        <v>589700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>131500</v>
+        <v>127400</v>
       </c>
       <c r="E41" s="3">
-        <v>87800</v>
+        <v>85100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>493900</v>
+        <v>478700</v>
       </c>
       <c r="E42" s="3">
-        <v>376200</v>
+        <v>364600</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>308500</v>
+        <v>307500</v>
       </c>
       <c r="E43" s="3">
-        <v>258800</v>
+        <v>250800</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>367500</v>
+        <v>356200</v>
       </c>
       <c r="E44" s="3">
-        <v>552900</v>
+        <v>535900</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32900</v>
+        <v>23300</v>
       </c>
       <c r="E45" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1334200</v>
+        <v>1293200</v>
       </c>
       <c r="E46" s="3">
-        <v>1294100</v>
+        <v>1254300</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2994900</v>
+        <v>2902800</v>
       </c>
       <c r="E47" s="3">
-        <v>2695900</v>
+        <v>2613000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1220100</v>
+        <v>1182500</v>
       </c>
       <c r="E48" s="3">
-        <v>1144800</v>
+        <v>1109600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5566700</v>
+        <v>5395600</v>
       </c>
       <c r="E49" s="3">
-        <v>5280100</v>
+        <v>5117700</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37000</v>
+        <v>35800</v>
       </c>
       <c r="E52" s="3">
-        <v>139300</v>
+        <v>135000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11152900</v>
+        <v>10810000</v>
       </c>
       <c r="E54" s="3">
-        <v>10554200</v>
+        <v>10229700</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>399900</v>
+        <v>387600</v>
       </c>
       <c r="E57" s="3">
-        <v>457400</v>
+        <v>443300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1414200</v>
+        <v>1370700</v>
       </c>
       <c r="E58" s="3">
-        <v>1372600</v>
+        <v>1330400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>125500</v>
+        <v>121700</v>
       </c>
       <c r="E59" s="3">
-        <v>166100</v>
+        <v>161000</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1939600</v>
+        <v>1880000</v>
       </c>
       <c r="E60" s="3">
-        <v>1996100</v>
+        <v>1934700</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3702500</v>
+        <v>3588700</v>
       </c>
       <c r="E61" s="3">
-        <v>3123200</v>
+        <v>3027200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>116100</v>
+        <v>112600</v>
       </c>
       <c r="E62" s="3">
-        <v>84800</v>
+        <v>82100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6612500</v>
+        <v>6409200</v>
       </c>
       <c r="E66" s="3">
-        <v>5999400</v>
+        <v>5814900</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2185400</v>
+        <v>2118200</v>
       </c>
       <c r="E72" s="3">
-        <v>1983100</v>
+        <v>1922200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4540400</v>
+        <v>4400800</v>
       </c>
       <c r="E76" s="3">
-        <v>4554800</v>
+        <v>4414800</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>529400</v>
+        <v>513100</v>
       </c>
       <c r="E81" s="3">
-        <v>608400</v>
+        <v>589700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>785800</v>
+        <v>761600</v>
       </c>
       <c r="E89" s="3">
-        <v>810600</v>
+        <v>785700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-574200</v>
+        <v>-556500</v>
       </c>
       <c r="E91" s="3">
-        <v>-679100</v>
+        <v>-658200</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-913500</v>
+        <v>-885500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1140100</v>
+        <v>-1105000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2833,10 +2833,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-483700</v>
+        <v>-468800</v>
       </c>
       <c r="E96" s="3">
-        <v>-449600</v>
+        <v>-435800</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>171500</v>
+        <v>166200</v>
       </c>
       <c r="E100" s="3">
-        <v>328100</v>
+        <v>318000</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43700</v>
+        <v>42400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JEXYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JEXYY_YR_FIN.xlsx
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1826400</v>
+        <v>1830300</v>
       </c>
       <c r="E8" s="3">
-        <v>1964800</v>
+        <v>1969100</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1218200</v>
+        <v>1220800</v>
       </c>
       <c r="E9" s="3">
-        <v>1240600</v>
+        <v>1243300</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>608200</v>
+        <v>609500</v>
       </c>
       <c r="E10" s="3">
-        <v>724200</v>
+        <v>725800</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1190300</v>
+        <v>1192900</v>
       </c>
       <c r="E17" s="3">
-        <v>1196500</v>
+        <v>1199100</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>636000</v>
+        <v>637400</v>
       </c>
       <c r="E18" s="3">
-        <v>768300</v>
+        <v>770000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>631200</v>
+        <v>632500</v>
       </c>
       <c r="E21" s="3">
-        <v>766900</v>
+        <v>768600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>631200</v>
+        <v>632500</v>
       </c>
       <c r="E23" s="3">
-        <v>766900</v>
+        <v>768600</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>114800</v>
+        <v>115000</v>
       </c>
       <c r="E24" s="3">
-        <v>177700</v>
+        <v>178100</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>516400</v>
+        <v>517500</v>
       </c>
       <c r="E26" s="3">
-        <v>589200</v>
+        <v>590500</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>513100</v>
+        <v>514200</v>
       </c>
       <c r="E27" s="3">
-        <v>589700</v>
+        <v>591000</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>513100</v>
+        <v>514200</v>
       </c>
       <c r="E33" s="3">
-        <v>589700</v>
+        <v>591000</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>513100</v>
+        <v>514200</v>
       </c>
       <c r="E35" s="3">
-        <v>589700</v>
+        <v>591000</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>127400</v>
+        <v>127700</v>
       </c>
       <c r="E41" s="3">
-        <v>85100</v>
+        <v>85200</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>478700</v>
+        <v>479800</v>
       </c>
       <c r="E42" s="3">
-        <v>364600</v>
+        <v>365400</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>307500</v>
+        <v>308200</v>
       </c>
       <c r="E43" s="3">
-        <v>250800</v>
+        <v>251400</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>356200</v>
+        <v>356900</v>
       </c>
       <c r="E44" s="3">
-        <v>535900</v>
+        <v>537100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23300</v>
+        <v>23400</v>
       </c>
       <c r="E45" s="3">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1293200</v>
+        <v>1296000</v>
       </c>
       <c r="E46" s="3">
-        <v>1254300</v>
+        <v>1257100</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2902800</v>
+        <v>2909200</v>
       </c>
       <c r="E47" s="3">
-        <v>2613000</v>
+        <v>2618700</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1182500</v>
+        <v>1185100</v>
       </c>
       <c r="E48" s="3">
-        <v>1109600</v>
+        <v>1112000</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5395600</v>
+        <v>5407300</v>
       </c>
       <c r="E49" s="3">
-        <v>5117700</v>
+        <v>5128900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="E52" s="3">
-        <v>135000</v>
+        <v>135300</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10810000</v>
+        <v>10833500</v>
       </c>
       <c r="E54" s="3">
-        <v>10229700</v>
+        <v>10252000</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>387600</v>
+        <v>388500</v>
       </c>
       <c r="E57" s="3">
-        <v>443300</v>
+        <v>444300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1370700</v>
+        <v>1373700</v>
       </c>
       <c r="E58" s="3">
-        <v>1330400</v>
+        <v>1333300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>121700</v>
+        <v>121900</v>
       </c>
       <c r="E59" s="3">
-        <v>161000</v>
+        <v>161300</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1880000</v>
+        <v>1884100</v>
       </c>
       <c r="E60" s="3">
-        <v>1934700</v>
+        <v>1938900</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3588700</v>
+        <v>3596500</v>
       </c>
       <c r="E61" s="3">
-        <v>3027200</v>
+        <v>3033800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>112600</v>
+        <v>112800</v>
       </c>
       <c r="E62" s="3">
-        <v>82100</v>
+        <v>82300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6409200</v>
+        <v>6423100</v>
       </c>
       <c r="E66" s="3">
-        <v>5814900</v>
+        <v>5827600</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2118200</v>
+        <v>2122800</v>
       </c>
       <c r="E72" s="3">
-        <v>1922200</v>
+        <v>1926300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4400800</v>
+        <v>4410400</v>
       </c>
       <c r="E76" s="3">
-        <v>4414800</v>
+        <v>4424400</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>513100</v>
+        <v>514200</v>
       </c>
       <c r="E81" s="3">
-        <v>589700</v>
+        <v>591000</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>761600</v>
+        <v>763300</v>
       </c>
       <c r="E89" s="3">
-        <v>785700</v>
+        <v>787400</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-556500</v>
+        <v>-557700</v>
       </c>
       <c r="E91" s="3">
-        <v>-658200</v>
+        <v>-659600</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-885500</v>
+        <v>-887400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1105000</v>
+        <v>-1107400</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2833,10 +2833,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-468800</v>
+        <v>-469800</v>
       </c>
       <c r="E96" s="3">
-        <v>-435800</v>
+        <v>-436700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>166200</v>
+        <v>166600</v>
       </c>
       <c r="E100" s="3">
-        <v>318000</v>
+        <v>318700</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42400</v>
+        <v>42500</v>
       </c>
       <c r="E102" s="3">
         <v>-1300</v>
